--- a/steve-tech/exampleWorks/Dasboard.xlsx
+++ b/steve-tech/exampleWorks/Dasboard.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deg11\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://byu-my.sharepoint.com/personal/deg11_byu_edu/Documents/University/BYU Idaho/WDD 130/wdd130/steve-tech/exampleWorks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0022DFB8-FE70-4079-BA37-50AF46031BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179CF370-477E-4871-AEB2-A89B6064E1D5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0022DFB8-FE70-4079-BA37-50AF46031BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9DDD9F6-3414-4E3A-BCAF-3596B093B2C3}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="7710" windowWidth="16800" windowHeight="7950" firstSheet="1" activeTab="1" xr2:uid="{B300068A-39BE-40F3-9C0C-44DF48608790}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{B300068A-39BE-40F3-9C0C-44DF48608790}"/>
   </bookViews>
   <sheets>
-    <sheet name="TablasDinamicas" sheetId="2" r:id="rId1"/>
+    <sheet name="TablasDinamicas" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
     <sheet name="BaseDatos" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4003" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="161">
   <si>
     <t>Cobertura</t>
   </si>
@@ -554,7 +554,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +707,22 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,21 +759,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,7 +774,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1118,23 +1118,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TablasDinamicas!$A$36:$A$37</c:f>
+              <c:f>TablasDinamicas!$A$36:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Compras</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formacion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Inventarios</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nomina</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tesoreria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TablasDinamicas!$B$36:$B$37</c:f>
+              <c:f>TablasDinamicas!$B$36:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9631148</c:v>
+                  <c:v>59285421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18742555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25047146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23706984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21452590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22773116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,23 +1991,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TablasDinamicas!$A$49:$A$50</c:f>
+              <c:f>TablasDinamicas!$A$49:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Compras</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formacion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Inventarios</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nomina</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tesoreria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TablasDinamicas!$B$49:$B$50</c:f>
+              <c:f>TablasDinamicas!$B$49:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5654,14 +5714,217 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34639EDE-A62F-451B-BBC4-4D3685C824E3}" name="PivotTable4" cacheId="4003" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:C28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A51A63F2-7330-4E49-A554-ABF1489F847B}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A35:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="105">
+        <item x="98"/>
+        <item x="81"/>
+        <item x="7"/>
+        <item x="103"/>
+        <item x="30"/>
+        <item x="77"/>
+        <item x="66"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="79"/>
+        <item x="65"/>
+        <item x="83"/>
+        <item x="33"/>
+        <item x="94"/>
+        <item x="78"/>
+        <item x="84"/>
+        <item x="71"/>
+        <item x="61"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="37"/>
+        <item x="2"/>
+        <item x="95"/>
+        <item x="54"/>
+        <item x="39"/>
+        <item x="89"/>
+        <item x="72"/>
+        <item x="51"/>
+        <item x="86"/>
+        <item x="99"/>
+        <item x="59"/>
+        <item x="16"/>
+        <item x="73"/>
+        <item x="23"/>
+        <item x="50"/>
+        <item x="97"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="40"/>
+        <item x="60"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="101"/>
+        <item x="53"/>
+        <item x="67"/>
+        <item x="62"/>
+        <item x="68"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="48"/>
+        <item x="4"/>
+        <item x="96"/>
+        <item x="88"/>
+        <item x="58"/>
+        <item x="26"/>
+        <item x="49"/>
+        <item x="46"/>
+        <item x="41"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="38"/>
+        <item x="43"/>
+        <item x="52"/>
+        <item x="93"/>
+        <item x="13"/>
+        <item x="32"/>
+        <item x="55"/>
+        <item x="35"/>
+        <item x="63"/>
+        <item x="14"/>
+        <item x="34"/>
+        <item x="8"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="22"/>
+        <item x="75"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="91"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="3"/>
+        <item x="80"/>
+        <item x="82"/>
+        <item x="6"/>
+        <item x="87"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="92"/>
+        <item x="56"/>
+        <item x="100"/>
+        <item x="5"/>
+        <item x="90"/>
+        <item x="44"/>
+        <item x="102"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="27"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of COSTO CAPACITACION" fld="11" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34639EDE-A62F-451B-BBC4-4D3685C824E3}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -5781,7 +6044,7 @@
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5797,9 +6060,12 @@
   <colFields count="1">
     <field x="6"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -5809,23 +6075,6 @@
     <dataField name="Count of ESTADO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="71" name="COMIENZO">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5837,15 +6086,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89C62232-2886-4212-983B-5789840887A3}" name="PivotTable3" cacheId="4003" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89C62232-2886-4212-983B-5789840887A3}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A18:A19" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -5965,7 +6214,7 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5990,23 +6239,6 @@
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="71" name="COMIENZO">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6018,15 +6250,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2B42C25-008C-47E0-B10A-3F58AA91B5C1}" name="PivotTable2" cacheId="4003" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2B42C25-008C-47E0-B10A-3F58AA91B5C1}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:B11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -6146,7 +6378,7 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6175,23 +6407,6 @@
     <dataField name="Sum of PERSONAS CITADAS" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="71" name="COMIENZO">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6203,15 +6418,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E1B2FAD-B0C6-44A8-BF78-EAFD244B0C2D}" name="PivotTable1" cacheId="4003" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E1B2FAD-B0C6-44A8-BF78-EAFD244B0C2D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -6331,7 +6546,7 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6360,23 +6575,6 @@
     <dataField name="Sum of POBLACION" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="71" name="COMIENZO">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6388,15 +6586,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A9D0637-3017-4E7F-831F-6417BB8826F4}" name="PivotTable6" cacheId="4003" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A48:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A9D0637-3017-4E7F-831F-6417BB8826F4}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A48:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -6526,7 +6724,7 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6539,9 +6737,24 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -6637,228 +6850,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="94" name="COMIENZO">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A51A63F2-7330-4E49-A554-ABF1489F847B}" name="PivotTable5" cacheId="4003" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A35:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="105">
-        <item x="98"/>
-        <item x="81"/>
-        <item x="7"/>
-        <item x="103"/>
-        <item x="30"/>
-        <item x="77"/>
-        <item x="66"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="79"/>
-        <item x="65"/>
-        <item x="83"/>
-        <item x="33"/>
-        <item x="94"/>
-        <item x="78"/>
-        <item x="84"/>
-        <item x="71"/>
-        <item x="61"/>
-        <item x="28"/>
-        <item x="64"/>
-        <item x="37"/>
-        <item x="2"/>
-        <item x="95"/>
-        <item x="54"/>
-        <item x="39"/>
-        <item x="89"/>
-        <item x="72"/>
-        <item x="51"/>
-        <item x="86"/>
-        <item x="99"/>
-        <item x="59"/>
-        <item x="16"/>
-        <item x="73"/>
-        <item x="23"/>
-        <item x="50"/>
-        <item x="97"/>
-        <item x="85"/>
-        <item x="70"/>
-        <item x="40"/>
-        <item x="60"/>
-        <item x="24"/>
-        <item x="31"/>
-        <item x="101"/>
-        <item x="53"/>
-        <item x="67"/>
-        <item x="62"/>
-        <item x="68"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="48"/>
-        <item x="4"/>
-        <item x="96"/>
-        <item x="88"/>
-        <item x="58"/>
-        <item x="26"/>
-        <item x="49"/>
-        <item x="46"/>
-        <item x="41"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item x="38"/>
-        <item x="43"/>
-        <item x="52"/>
-        <item x="93"/>
-        <item x="13"/>
-        <item x="32"/>
-        <item x="55"/>
-        <item x="35"/>
-        <item x="63"/>
-        <item x="14"/>
-        <item x="34"/>
-        <item x="8"/>
-        <item x="47"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="22"/>
-        <item x="75"/>
-        <item x="25"/>
-        <item x="36"/>
-        <item x="91"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="3"/>
-        <item x="80"/>
-        <item x="82"/>
-        <item x="6"/>
-        <item x="87"/>
-        <item x="0"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="92"/>
-        <item x="56"/>
-        <item x="100"/>
-        <item x="5"/>
-        <item x="90"/>
-        <item x="44"/>
-        <item x="102"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="27"/>
-        <item x="74"/>
-        <item x="76"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of COSTO CAPACITACION" fld="11" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="71" name="COMIENZO">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6883,8 +6874,8 @@
   <data>
     <tabular pivotCacheId="98515974">
       <items count="3">
-        <i x="1"/>
-        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -6906,7 +6897,7 @@
     <tabular pivotCacheId="98515974">
       <items count="2">
         <i x="0" s="1"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -7246,8 +7237,7 @@
     <pivotTable tabId="2" name="PivotTable4"/>
     <pivotTable tabId="2" name="PivotTable5"/>
   </pivotTables>
-  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="98515974" filterType="dateBetween">
-    <selection startDate="2021-01-01T00:00:00" endDate="2021-12-31T00:00:00"/>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="98515974" filterType="unknown">
     <bounds startDate="2021-01-01T00:00:00" endDate="2022-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -7255,31 +7245,32 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <timeline name="COMIENZO" xr10:uid="{5CAB3569-9588-4B72-944D-85EEEEF37554}" cache="NativeTimeline_COMIENZO" caption="COMIENZO" level="1" selectionLevel="0" scrollPosition="2021-01-01T00:00:00"/>
+  <timeline name="COMIENZO" xr10:uid="{5CAB3569-9588-4B72-944D-85EEEEF37554}" cache="NativeTimeline_COMIENZO" caption="COMIENZO" level="1" selectionLevel="1" scrollPosition="2021-01-01T00:00:00"/>
 </timelines>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B820ABBB-2C28-40D9-9A5B-B6FF44DAED32}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7287,24 +7278,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37">
-        <v>159</v>
-      </c>
-      <c r="B4" s="37">
-        <v>338</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1189</v>
+      </c>
+      <c r="B4" s="15">
+        <v>4336</v>
       </c>
       <c r="C4" s="9">
         <f>GETPIVOTDATA("Sum of PERSONAS CAPACITADAS",$A$3)/GETPIVOTDATA("Sum of POBLACION",$A$3)</f>
-        <v>0.47041420118343197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.27421586715867158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -7312,74 +7303,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="37">
-        <v>159</v>
-      </c>
-      <c r="B11" s="37">
-        <v>175</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>1189</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2538</v>
       </c>
       <c r="C11" s="9">
         <f>GETPIVOTDATA("Sum of PERSONAS CAPACITADAS",$A$10)/GETPIVOTDATA("Sum of PERSONAS CITADAS",$A$10)</f>
-        <v>0.90857142857142859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.46847911741528764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>9631148</v>
+        <v>171007812</v>
       </c>
       <c r="B19" s="7">
         <v>230000000</v>
       </c>
       <c r="C19" s="9">
         <f>GETPIVOTDATA("COSTO CAPACITACION",$A$18)/B19</f>
-        <v>4.1874556521739131E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.74351222608695655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="37">
-        <v>9</v>
-      </c>
-      <c r="C28" s="37">
-        <v>9</v>
+      <c r="B28" s="15">
+        <v>58</v>
+      </c>
+      <c r="C28" s="15">
+        <v>57</v>
+      </c>
+      <c r="D28" s="15">
+        <v>115</v>
       </c>
       <c r="E28" s="9">
         <f>GETPIVOTDATA("ESTADO",$A$26,"ESTADO","EJECUTADA")/GETPIVOTDATA("ESTADO",$A$26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.5043478260869565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>12</v>
       </c>
@@ -7387,23 +7384,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="13">
+        <v>59285421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="13">
-        <v>9631148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="B37" s="13">
+        <v>18742555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="13">
+        <v>25047146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="13">
+        <v>23706984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13">
+        <v>21452590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="13">
+        <v>22773116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="13">
-        <v>9631148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B42" s="13">
+        <v>171007812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
@@ -7411,20 +7448,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="37">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
+      <c r="B50" s="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="37">
-        <v>41</v>
+      <c r="B55" s="15">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -7437,11 +7514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE0B65-E599-4122-B926-1300D935309C}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -7451,187 +7526,182 @@
     <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" ht="15" customHeight="1">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="4:18" ht="15" customHeight="1">
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="4:18" ht="15" customHeight="1">
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="4:18">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="P5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="23.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="E21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="I21" s="16" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="I21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="M21" s="22" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="M21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75">
-      <c r="A22" s="28" t="s">
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17">
         <f>GETPIVOTDATA("Sum of PERSONAS CAPACITADAS",TablasDinamicas!$A$3)</f>
-        <v>159</v>
+        <v>1189</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34">
         <f>GETPIVOTDATA("Sum of PERSONAS CAPACITADAS",TablasDinamicas!$A$10)</f>
-        <v>159</v>
+        <v>1189</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18">
+      <c r="J22" s="23"/>
+      <c r="K22" s="24">
         <f>GETPIVOTDATA("COSTO CAPACITACION",TablasDinamicas!$A$18)</f>
-        <v>9631148</v>
+        <v>171007812</v>
       </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23">
+      <c r="N22" s="29"/>
+      <c r="O22" s="29">
         <f>GETPIVOTDATA("ESTADO",TablasDinamicas!$A$26,"ESTADO","EJECUTADA")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30">
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19">
         <f>TablasDinamicas!C4</f>
-        <v>0.47041420118343197</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35">
+        <v>0.27421586715867158</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36">
         <f>TablasDinamicas!C11</f>
-        <v>0.90857142857142859</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20">
+        <v>0.46847911741528764</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26">
         <f>TablasDinamicas!C19</f>
-        <v>4.1874556521739131E-2</v>
-      </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25">
+        <v>0.74351222608695655</v>
+      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31">
         <f>TablasDinamicas!E28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="26"/>
+        <v>0.5043478260869565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="27"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="D2:R4"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:J23"/>
@@ -7648,6 +7718,11 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7675,7 +7750,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -7691,7 +7766,7 @@
     <col min="12" max="12" width="24.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -7730,7 +7805,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -7768,7 +7843,7 @@
         <v>1183067</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -7803,7 +7878,7 @@
         <v>516494</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -7841,7 +7916,7 @@
         <v>587739</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -7876,7 +7951,7 @@
         <v>1416670</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -7911,7 +7986,7 @@
         <v>2206987</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7949,7 +8024,7 @@
         <v>1371349</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7987,7 +8062,7 @@
         <v>1875709</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8022,7 +8097,7 @@
         <v>2425787</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -8060,7 +8135,7 @@
         <v>2084002</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -8095,7 +8170,7 @@
         <v>279124</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -8130,7 +8205,7 @@
         <v>1124636</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -8168,7 +8243,7 @@
         <v>536594</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -8206,7 +8281,7 @@
         <v>268695</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -8241,7 +8316,7 @@
         <v>979739</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -8279,7 +8354,7 @@
         <v>1356679</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -8314,7 +8389,7 @@
         <v>2341093</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -8349,7 +8424,7 @@
         <v>1331151</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -8387,7 +8462,7 @@
         <v>2327324</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -8425,7 +8500,7 @@
         <v>318085</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -8460,7 +8535,7 @@
         <v>339274</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -8498,7 +8573,7 @@
         <v>1410029</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -8533,7 +8608,7 @@
         <v>2499467</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -8568,7 +8643,7 @@
         <v>2246530</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -8606,7 +8681,7 @@
         <v>2248625</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -8644,7 +8719,7 @@
         <v>2024457</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -8679,7 +8754,7 @@
         <v>1214773</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -8717,7 +8792,7 @@
         <v>1135197</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -8752,7 +8827,7 @@
         <v>2128281</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -8787,7 +8862,7 @@
         <v>1590655</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -8825,7 +8900,7 @@
         <v>1428074</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -8863,7 +8938,7 @@
         <v>1154898</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -8898,7 +8973,7 @@
         <v>1603714</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -8936,7 +9011,7 @@
         <v>397161</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -8971,7 +9046,7 @@
         <v>2112823</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -9006,7 +9081,7 @@
         <v>1703402</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -9044,7 +9119,7 @@
         <v>2437898</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -9082,7 +9157,7 @@
         <v>563434</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -9117,7 +9192,7 @@
         <v>2270708</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -9155,7 +9230,7 @@
         <v>1689448</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -9190,7 +9265,7 @@
         <v>1252414</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -9225,7 +9300,7 @@
         <v>1407958</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -9263,7 +9338,7 @@
         <v>940794</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -9301,7 +9376,7 @@
         <v>2012933</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -9336,7 +9411,7 @@
         <v>1049210</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -9374,7 +9449,7 @@
         <v>1280585</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -9409,7 +9484,7 @@
         <v>2283292</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -9444,7 +9519,7 @@
         <v>1130096</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -9482,7 +9557,7 @@
         <v>1069876</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -9520,7 +9595,7 @@
         <v>1622834</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -9555,7 +9630,7 @@
         <v>1276419</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -9593,7 +9668,7 @@
         <v>645666</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -9628,7 +9703,7 @@
         <v>1515275</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -9663,7 +9738,7 @@
         <v>1268640</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -9701,7 +9776,7 @@
         <v>1647094</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -9739,7 +9814,7 @@
         <v>1728720</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -9774,7 +9849,7 @@
         <v>1944997</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -9812,7 +9887,7 @@
         <v>2315650</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -9847,7 +9922,7 @@
         <v>2284885</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -9882,7 +9957,7 @@
         <v>1754072</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -9920,7 +9995,7 @@
         <v>1064215</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -9958,7 +10033,7 @@
         <v>2117261</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -9993,7 +10068,7 @@
         <v>2006136</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -10031,7 +10106,7 @@
         <v>1912139</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -10066,7 +10141,7 @@
         <v>1767717</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -10101,7 +10176,7 @@
         <v>342973</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -10139,7 +10214,7 @@
         <v>2482094</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -10177,7 +10252,7 @@
         <v>353810</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -10212,7 +10287,7 @@
         <v>293806</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -10250,7 +10325,7 @@
         <v>1208847</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -10285,7 +10360,7 @@
         <v>1697251</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -10320,7 +10395,7 @@
         <v>1267315</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -10358,7 +10433,7 @@
         <v>2350924</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -10396,7 +10471,7 @@
         <v>1659332</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -10431,7 +10506,7 @@
         <v>1875115</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -10469,7 +10544,7 @@
         <v>1243647</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -10504,7 +10579,7 @@
         <v>261842</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -10539,7 +10614,7 @@
         <v>2034340</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -10577,7 +10652,7 @@
         <v>802730</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -10615,7 +10690,7 @@
         <v>1764999</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -10650,7 +10725,7 @@
         <v>1771043</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -10688,7 +10763,7 @@
         <v>1839409</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -10723,7 +10798,7 @@
         <v>2104460</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -10758,7 +10833,7 @@
         <v>1239481</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -10796,7 +10871,7 @@
         <v>2468983</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -10834,7 +10909,7 @@
         <v>363553</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -10869,7 +10944,7 @@
         <v>1687439</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -10907,7 +10982,7 @@
         <v>1077650</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -10942,7 +11017,7 @@
         <v>1080535</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -10977,7 +11052,7 @@
         <v>1341785</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -11015,7 +11090,7 @@
         <v>376024</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -11053,7 +11128,7 @@
         <v>2142495</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -11088,7 +11163,7 @@
         <v>1585272</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -11126,7 +11201,7 @@
         <v>608742</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -11161,7 +11236,7 @@
         <v>1394970</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -11196,7 +11271,7 @@
         <v>809429</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -11234,7 +11309,7 @@
         <v>2423642</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -11272,7 +11347,7 @@
         <v>1146492</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -11307,7 +11382,7 @@
         <v>927515</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -11345,7 +11420,7 @@
         <v>1931737</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -11380,7 +11455,7 @@
         <v>2089527</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -11415,7 +11490,7 @@
         <v>2010785</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -11453,7 +11528,7 @@
         <v>779929</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -11491,7 +11566,7 @@
         <v>2059266</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -11526,7 +11601,7 @@
         <v>1758014</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -11564,7 +11639,7 @@
         <v>2212974</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11599,7 +11674,7 @@
         <v>1743618</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -11634,7 +11709,7 @@
         <v>2238462</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -11672,7 +11747,7 @@
         <v>1893635</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -11710,7 +11785,7 @@
         <v>1810002</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -11745,7 +11820,7 @@
         <v>2078877</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -11783,7 +11858,7 @@
         <v>1700699</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -11818,7 +11893,7 @@
         <v>1008765</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -11853,7 +11928,7 @@
         <v>543345</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -11891,7 +11966,7 @@
         <v>2311654</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>148</v>
       </c>
